--- a/응모리스트샘플.xlsx
+++ b/응모리스트샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junho85/PycharmProjects/onetwopunch_lucky_draw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B98D4B-2FEB-4C4D-BBD4-18C1088F64CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FF220-00BD-2C4D-A487-FF11731F7E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3400" windowWidth="28040" windowHeight="17440" xr2:uid="{10EB791A-67A1-5447-B532-6ECEBBF7A4CB}"/>
+    <workbookView xWindow="12480" yWindow="3880" windowWidth="28040" windowHeight="17440" xr2:uid="{10EB791A-67A1-5447-B532-6ECEBBF7A4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>순번</t>
   </si>
@@ -64,6 +64,168 @@
   </si>
   <si>
     <t>wood</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>원투펀치</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>kakao</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>damon</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ellie</t>
+  </si>
+  <si>
+    <t>cindy</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>billy</t>
+  </si>
+  <si>
+    <t>conton</t>
+  </si>
+  <si>
+    <t>micky</t>
+  </si>
+  <si>
+    <t>eren</t>
+  </si>
+  <si>
+    <t>ryon</t>
+  </si>
+  <si>
+    <t>apeach</t>
+  </si>
+  <si>
+    <t>neo</t>
+  </si>
+  <si>
+    <t>muzi</t>
+  </si>
+  <si>
+    <t>frodo</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>ukulele</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>brandon</t>
+  </si>
+  <si>
+    <t>olivia</t>
+  </si>
+  <si>
+    <t>lucas</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>jude</t>
+  </si>
+  <si>
+    <t>randy</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>duke</t>
+  </si>
+  <si>
+    <t>dean</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>bob</t>
+  </si>
+  <si>
+    <t>kyle</t>
+  </si>
+  <si>
+    <t>claire</t>
+  </si>
+  <si>
+    <t>zoe</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>chloe</t>
+  </si>
+  <si>
+    <t>jake</t>
+  </si>
+  <si>
+    <t>jane</t>
+  </si>
+  <si>
+    <t>동행인여부</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -415,23 +577,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F908C87-D742-2044-8FB9-98058FEEBE07}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -439,17 +604,23 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A31" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -457,8 +628,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -466,8 +640,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -475,8 +652,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -484,8 +664,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -493,8 +676,11 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -502,8 +688,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -511,8 +700,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -520,8 +712,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -529,23 +724,854 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" ref="A67:A101" si="1">ROW()-1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/응모리스트샘플.xlsx
+++ b/응모리스트샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junho85/PycharmProjects/onetwopunch_lucky_draw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FF220-00BD-2C4D-A487-FF11731F7E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D18799-776D-E44F-ADFE-6FB14466302E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="3880" windowWidth="28040" windowHeight="17440" xr2:uid="{10EB791A-67A1-5447-B532-6ECEBBF7A4CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>순번</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>중복닉네임</t>
   </si>
 </sst>
 </file>
@@ -579,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F908C87-D742-2044-8FB9-98058FEEBE07}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,97 +1355,127 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" ref="A67:A101" si="1">ROW()-1</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>

--- a/응모리스트샘플.xlsx
+++ b/응모리스트샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junho85/PycharmProjects/onetwopunch_lucky_draw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D18799-776D-E44F-ADFE-6FB14466302E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD1EB9B-72B3-1A4F-B856-466E9585939D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="3880" windowWidth="28040" windowHeight="17440" xr2:uid="{10EB791A-67A1-5447-B532-6ECEBBF7A4CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" xr2:uid="{10EB791A-67A1-5447-B532-6ECEBBF7A4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
